--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.392928782403534</v>
+        <v>0.07360033333333334</v>
       </c>
       <c r="H2">
-        <v>0.392928782403534</v>
+        <v>0.220801</v>
       </c>
       <c r="I2">
-        <v>0.1636958363652748</v>
+        <v>0.02873450582079328</v>
       </c>
       <c r="J2">
-        <v>0.1636958363652748</v>
+        <v>0.02873450582079327</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.7518420399383</v>
+        <v>26.04517333333333</v>
       </c>
       <c r="N2">
-        <v>2.7518420399383</v>
+        <v>78.13552</v>
       </c>
       <c r="O2">
-        <v>0.5964074284397364</v>
+        <v>0.9210237118384171</v>
       </c>
       <c r="P2">
-        <v>0.5964074284397364</v>
+        <v>0.921023711838417</v>
       </c>
       <c r="Q2">
-        <v>1.081277942119814</v>
+        <v>1.916933439057778</v>
       </c>
       <c r="R2">
-        <v>1.081277942119814</v>
+        <v>17.25240095152</v>
       </c>
       <c r="S2">
-        <v>0.09762941281290545</v>
+        <v>0.02646516120890963</v>
       </c>
       <c r="T2">
-        <v>0.09762941281290545</v>
+        <v>0.02646516120890962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,111 +593,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.392928782403534</v>
+        <v>0.07360033333333334</v>
       </c>
       <c r="H3">
-        <v>0.392928782403534</v>
+        <v>0.220801</v>
       </c>
       <c r="I3">
-        <v>0.1636958363652748</v>
+        <v>0.02873450582079328</v>
       </c>
       <c r="J3">
-        <v>0.1636958363652748</v>
+        <v>0.02873450582079327</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.86218841762559</v>
+        <v>0.3302223333333333</v>
       </c>
       <c r="N3">
-        <v>1.86218841762559</v>
+        <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.4035925715602636</v>
+        <v>0.01167750336256582</v>
       </c>
       <c r="P3">
-        <v>0.4035925715602636</v>
+        <v>0.01167750336256582</v>
       </c>
       <c r="Q3">
-        <v>0.7317074275435868</v>
+        <v>0.02430447380744444</v>
       </c>
       <c r="R3">
-        <v>0.7317074275435868</v>
+        <v>0.218740264267</v>
       </c>
       <c r="S3">
-        <v>0.06606642355236939</v>
+        <v>0.0003355472883439807</v>
       </c>
       <c r="T3">
-        <v>0.06606642355236939</v>
+        <v>0.0003355472883439807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.00743026843233</v>
+        <v>0.07360033333333334</v>
       </c>
       <c r="H4">
-        <v>2.00743026843233</v>
+        <v>0.220801</v>
       </c>
       <c r="I4">
-        <v>0.8363041636347252</v>
+        <v>0.02873450582079328</v>
       </c>
       <c r="J4">
-        <v>0.8363041636347252</v>
+        <v>0.02873450582079327</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.7518420399383</v>
+        <v>1.903109</v>
       </c>
       <c r="N4">
-        <v>2.7518420399383</v>
+        <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.5964074284397364</v>
+        <v>0.06729878479901708</v>
       </c>
       <c r="P4">
-        <v>0.5964074284397364</v>
+        <v>0.06729878479901708</v>
       </c>
       <c r="Q4">
-        <v>5.524131004916712</v>
+        <v>0.1400694567696667</v>
       </c>
       <c r="R4">
-        <v>5.524131004916712</v>
+        <v>1.260625110927</v>
       </c>
       <c r="S4">
-        <v>0.4987780156268309</v>
+        <v>0.00193379732353967</v>
       </c>
       <c r="T4">
-        <v>0.4987780156268309</v>
+        <v>0.00193379732353967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.4213883333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.264165</v>
+      </c>
+      <c r="I5">
+        <v>0.1645153624799848</v>
+      </c>
+      <c r="J5">
+        <v>0.1645153624799848</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>26.04517333333333</v>
+      </c>
+      <c r="N5">
+        <v>78.13552</v>
+      </c>
+      <c r="O5">
+        <v>0.9210237118384171</v>
+      </c>
+      <c r="P5">
+        <v>0.921023711838417</v>
+      </c>
+      <c r="Q5">
+        <v>10.97513218231111</v>
+      </c>
+      <c r="R5">
+        <v>98.7761896408</v>
+      </c>
+      <c r="S5">
+        <v>0.1515225498057583</v>
+      </c>
+      <c r="T5">
+        <v>0.1515225498057583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.4213883333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.264165</v>
+      </c>
+      <c r="I6">
+        <v>0.1645153624799848</v>
+      </c>
+      <c r="J6">
+        <v>0.1645153624799848</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.3302223333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.990667</v>
+      </c>
+      <c r="O6">
+        <v>0.01167750336256582</v>
+      </c>
+      <c r="P6">
+        <v>0.01167750336256582</v>
+      </c>
+      <c r="Q6">
+        <v>0.1391518386727778</v>
+      </c>
+      <c r="R6">
+        <v>1.252366548055</v>
+      </c>
+      <c r="S6">
+        <v>0.001921128698553758</v>
+      </c>
+      <c r="T6">
+        <v>0.001921128698553758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4213883333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.264165</v>
+      </c>
+      <c r="I7">
+        <v>0.1645153624799848</v>
+      </c>
+      <c r="J7">
+        <v>0.1645153624799848</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.903109</v>
+      </c>
+      <c r="N7">
+        <v>5.709327</v>
+      </c>
+      <c r="O7">
+        <v>0.06729878479901708</v>
+      </c>
+      <c r="P7">
+        <v>0.06729878479901708</v>
+      </c>
+      <c r="Q7">
+        <v>0.8019479296616666</v>
+      </c>
+      <c r="R7">
+        <v>7.217531366955</v>
+      </c>
+      <c r="S7">
+        <v>0.01107168397567279</v>
+      </c>
+      <c r="T7">
+        <v>0.01107168397567279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.066403333333334</v>
+      </c>
+      <c r="H8">
+        <v>6.199210000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.8067501316992219</v>
+      </c>
+      <c r="J8">
+        <v>0.8067501316992219</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>26.04517333333333</v>
+      </c>
+      <c r="N8">
+        <v>78.13552</v>
+      </c>
+      <c r="O8">
+        <v>0.9210237118384171</v>
+      </c>
+      <c r="P8">
+        <v>0.921023711838417</v>
+      </c>
+      <c r="Q8">
+        <v>53.81983299324445</v>
+      </c>
+      <c r="R8">
+        <v>484.3784969392</v>
+      </c>
+      <c r="S8">
+        <v>0.7430360008237492</v>
+      </c>
+      <c r="T8">
+        <v>0.7430360008237492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.00743026843233</v>
-      </c>
-      <c r="H5">
-        <v>2.00743026843233</v>
-      </c>
-      <c r="I5">
-        <v>0.8363041636347252</v>
-      </c>
-      <c r="J5">
-        <v>0.8363041636347252</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.86218841762559</v>
-      </c>
-      <c r="N5">
-        <v>1.86218841762559</v>
-      </c>
-      <c r="O5">
-        <v>0.4035925715602636</v>
-      </c>
-      <c r="P5">
-        <v>0.4035925715602636</v>
-      </c>
-      <c r="Q5">
-        <v>3.738213395065714</v>
-      </c>
-      <c r="R5">
-        <v>3.738213395065714</v>
-      </c>
-      <c r="S5">
-        <v>0.3375261480078942</v>
-      </c>
-      <c r="T5">
-        <v>0.3375261480078942</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.066403333333334</v>
+      </c>
+      <c r="H9">
+        <v>6.199210000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.8067501316992219</v>
+      </c>
+      <c r="J9">
+        <v>0.8067501316992219</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3302223333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.990667</v>
+      </c>
+      <c r="O9">
+        <v>0.01167750336256582</v>
+      </c>
+      <c r="P9">
+        <v>0.01167750336256582</v>
+      </c>
+      <c r="Q9">
+        <v>0.6823725303411112</v>
+      </c>
+      <c r="R9">
+        <v>6.14135277307</v>
+      </c>
+      <c r="S9">
+        <v>0.009420827375668085</v>
+      </c>
+      <c r="T9">
+        <v>0.009420827375668085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.066403333333334</v>
+      </c>
+      <c r="H10">
+        <v>6.199210000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.8067501316992219</v>
+      </c>
+      <c r="J10">
+        <v>0.8067501316992219</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.903109</v>
+      </c>
+      <c r="N10">
+        <v>5.709327</v>
+      </c>
+      <c r="O10">
+        <v>0.06729878479901708</v>
+      </c>
+      <c r="P10">
+        <v>0.06729878479901708</v>
+      </c>
+      <c r="Q10">
+        <v>3.932590781296667</v>
+      </c>
+      <c r="R10">
+        <v>35.39331703167</v>
+      </c>
+      <c r="S10">
+        <v>0.05429330349980462</v>
+      </c>
+      <c r="T10">
+        <v>0.05429330349980462</v>
       </c>
     </row>
   </sheetData>
